--- a/data/trans_dic/P16_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P16_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud autopercibida regular o mala</t>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>12,96%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,34</t>
+          <t>4,19; 12,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,32</t>
+          <t>6,57; 15,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,54</t>
+          <t>5,16; 13,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,17</t>
+          <t>8,45; 18,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,3; 21,68</t>
+          <t>7,68; 18,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,06</t>
+          <t>10,53; 20,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 24,17</t>
+          <t>10,34; 20,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 40,33</t>
+          <t>13,84; 25,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,52</t>
+          <t>13,91; 25,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 15,03</t>
+          <t>20,3; 34,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 17,57</t>
+          <t>8,62; 15,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 28,35</t>
+          <t>9,76; 16,67</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 18,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 20,48</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 25,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,26%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 14,32</t>
+          <t>3,4; 12,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 15,92</t>
+          <t>4,0; 19,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 17,4</t>
+          <t>7,61; 23,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 16,82</t>
+          <t>9,91; 24,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 26,28</t>
+          <t>12,32; 28,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,52</t>
+          <t>14,78; 27,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,06; 26,41</t>
+          <t>12,31; 24,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 28,41</t>
+          <t>15,08; 28,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 19,3</t>
+          <t>14,41; 26,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 15,68</t>
+          <t>19,38; 41,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 20,02</t>
+          <t>10,18; 18,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 20,8</t>
+          <t>9,55; 18,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 22,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>13,26; 23,6</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,76; 31,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>9,83%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>41,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 17,06</t>
+          <t>0,0; 27,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 27,31</t>
+          <t>4,22; 33,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 20,61</t>
+          <t>2,08; 22,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 22,52</t>
+          <t>3,87; 33,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 25,97</t>
+          <t>28,72; 81,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 19,83</t>
+          <t>0,0; 16,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,03; 34,24</t>
+          <t>0,0; 14,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 31,22</t>
+          <t>5,03; 27,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,64; 18,06</t>
+          <t>5,05; 27,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 20,22</t>
+          <t>14,54; 45,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,21; 25,26</t>
+          <t>1,45; 16,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 23,74</t>
+          <t>3,78; 19,34</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 20,16</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 25,39</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>26,71; 61,63</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,05</t>
+          <t>4,6; 10,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,16</t>
+          <t>7,08; 14,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,69</t>
+          <t>7,23; 15,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,8</t>
+          <t>10,46; 18,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,81</t>
+          <t>14,57; 28,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 17,84</t>
+          <t>12,75; 19,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 23,57</t>
+          <t>11,97; 19,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,42; 31,43</t>
+          <t>15,24; 23,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,22</t>
+          <t>15,03; 22,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,16</t>
+          <t>22,9; 34,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 17,65</t>
+          <t>9,65; 14,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 22,62</t>
+          <t>10,32; 15,96</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,35; 18,16</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 19,62</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>20,3; 28,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26773</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44877</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31650</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>48732</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63764</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>66019</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>76319</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>79282</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>77839</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>154794</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>92792</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>121195</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>110932</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>126571</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>218558</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15327; 44694</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>28237; 68065</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18885; 51103</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32169; 71814</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39450; 94878</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45843; 89270</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52263; 104031</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>58275; 105541</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56370; 101809</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>114430; 192500</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>69031; 121510</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>91332; 155977</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>86509; 143977</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>98561; 161009</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>169712; 271198</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20749</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>31399</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41761</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51930</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79751</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>70362</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>74751</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71569</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>118691</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>91112</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>106150</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>113330</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>117334</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>198442</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10346; 37258</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14383; 70065</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24231; 74148</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31985; 79121</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50552; 115902</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51756; 97579</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>52382; 103469</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51049; 96561</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47279; 88374</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>83968; 181796</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>66690; 119169</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>74929; 145189</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>83267; 147257</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>86311; 153593</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>149756; 262860</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6446</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15113</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6825</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11667</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>64365</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4204</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4568</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11294</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11040</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32082</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10649</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19681</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18119</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22707</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>96447</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23613</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4180; 33203</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1653; 18247</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3313; 28513</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34287; 97297</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13222</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14525</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4098; 22107</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4168; 22845</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16194; 51127</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2433; 28293</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7578; 38740</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7186; 32491</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10579; 42697</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>61627; 142207</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53968</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91389</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80235</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>112329</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>207880</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>140584</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>155637</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>162146</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>154282</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>305566</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>194553</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>247026</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>242381</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>266611</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>513446</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>34730; 75500</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>62916; 131168</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55280; 120178</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>82511; 148163</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>152050; 292681</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>110687; 173508</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>123540; 200130</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>128185; 198479</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122648; 187189</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>253818; 384579</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>156586; 235143</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>198250; 306549</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>198268; 291432</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>222528; 314842</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>436825; 617076</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
